--- a/Testdata/TC_142.xlsx
+++ b/Testdata/TC_142.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>CykAAB+LCAAAAAAAAAPtWltvG8cV/isLAgFaINTuklQkEeMNeJFcoqRkiHRt5yVY7o7IqZe77M6sJL6lL7UQJ0UDw2nd2ikCOGiTxq4Bp41rN/4xgSjJT/kLPTOzV15k0nUfGjgQYs65zZkzZ875dnbRu4cDR9nHPiWeeyGnr2g5BbuWZxO3dyEXsL28/k7uXQNtHlrYuWT65gAzEFZAy6XlQ0ou5PqMDcuqenBwsHJQXPH8nlrQNF292mq2rT4emHniUma6Fs7FWvbLtXIGqtmDFmambTJTal7INdqNlRomVh1oLdM1e9hfqQaUuJjSTZcRRjDlmj42Ga7VW7+QCzMKK++s6EidoieS1YA4tpTLSEp6KAfT4g4ZYKOg6et5bSOvFTu6XtZK5WJxZXVNey9SjAVR06Ssjf19YglCm5mDoVDXNrSirmulYhGpM4XAVhIAA+049i7eJxTbNew4dKmIqOEGViwGq14umBpSU7qhoVd34aJvDvsdwhy8nBtvKUPsKy3PZf23ld1WVRm4oWOJRQNteT62IJiv5N82Ptjxwxh3hk3gdvrEZ6O6OVra1mWK/Z0hj9hyqgaqwxIrDvbZ5SFsPLYhL4BhMD/ASJ3DTJTqhFrwm7gBto0906FppQwTXfH863RoWngbDrXKbRy4jmfakH2MUEasZNIpBrrke7Af3OWq59hbYDUUnsGILTdcCDGftup51xPvZjGR2FWxv7CnA5NF4lN01O57BzuuM2oHXWr5pIvtejWSnslD/HSG2rWAMm8AXiQkJGkpim2rrZY6gv/gTE4yUR1bZGA6lxwIJTXgNGcJqBIwb4+wmucEA5dGnk1Q0RVYVwcfxuuMx2gHttjloffchhvJy2DPZGUVdr2DeM5phghFilyhVrTp04xJ4TrQok2c5oh94avcIg60jPSOpKjZ3Gj3MWYzE0NyEK+OW7wJGdXRdjDowiHrwknbF7NSpCZ8BNkKGQ9+GRo0lrz462haWfyBHzEbbbr2fLmIiWC61FyGvorUCRKCNTlVx3SvA/UKYf3tSrSWGRwkIzBXfpqH4PwOHXMkyHGU0jTUcC0nsLEsCw13T6Qo901u6lw2miI14aQbyHRHndEQSjUlZQY/LuSgeZcp8wEe5AzLC1zmj3j9QGoo+jIdGnRdMYHpLKyz5+NfBYBKRluBa9U8e/HZbBmdyy5hi3voBb4siouriOjx+hjQOuaVRpT+hfWtZdZE/aXEBy4eeC6xFo82BJl7b7/CQmh0qhbWwPJ8LSzvQHeXzY+f9YXVfICU0O6WmqZCqWcRkazh8bBT+uqcI1PHe2bgAJxj0Gh7ce2dJKMKvT4pkyahy74TVUCDg2UKaNmyBysWQAiOCFcsb8AJKoDUK22kpuU5DrLwpttrmm4vAKQR15VJelx/eZfs+KZL+XJiYDFRimcLoahOScBjyOK1E4hEkMXLAy5SJ+RQBw+Gnm86LQgM2QrTLkRNAEhaJuuHI+htDraiIKuJaqyV9Sxy/GVioknJZfADH5bJCaIQ4muRuDyRSWiIr7IFx9KpmQ7p+rKqRq18Fg82LIGIUf3li1sSLkZ7AM9m0H1/jkccsCeDkC5SVo8YMoF5ITXau6X1QmljHbqZGCOx4joeepQwZRcWWFZqfQJovQaKEEmlCntYVir7vbKyRVx4riNAbI8ow4OyUtQU5inrGwrHzNAgRfjCFvVaLadtoq2oP4gl1GEtWUpWAHBKD8w704IxJ1Ew6iZxRik5GaGmZ4HY+MEfTr5+Pj768vS3N3749x9P7jyF38dPHozvP3xx659nn38ExPG/Ho/vce6LG5+cffbx8Xe3Th8/g2FRO7vxeH1jfP9LGSZpEXXMroOF053q+rpWLEEOxyTEN04V4NsOLCZo164JzB2PUfgcKQa1zUbtYrMqalVMjNRlu1L5I+rIC5JhW65UTCTSRY2yTIoYnaj2heMMN9X+DP7IuI+z0mn+PEUZi9Nnfzl99mCudhiwBMfpGxureQ3+CufDPHj4LnE5fWMWzGtm+kssXEgbnZBBu7K5xHFq2EZRh+f71TVNj/uEHR+EWUKTrNBSx+ypE3qSVJPQK06B9DhiisPRwZTFbHlcUgMZxJN/3Dz7++2MVBjdkJK1As4JiMQnU6OBML2921HaO5d3a5tKZ7PN8yThpeSk8XOEw9njQ5dOGnEg31Zyq4qXYO9c6oRmMmwWVVpfxs6kPxd9LxjKYpNSSKgzJJOqM0tjRuURPFkzJ0pQwpkhHe7o77+YpRCuo56g4vS9SpyFgoGm2ZKeEgonu3ska+BbGQvhZPE1A2Q1nJ30ME5yKHBh55qgoCttEdDr2vupThUS+SPZJY+4jBqltVVdPI+FYwTKOrcn/kWNAbRPYVqEDegTFPQzk24esvAgG9tIzRLA06EJndtLnmNjgqzZSXhf3Pvs5E/fnHz66OzGV+MP/zr+6NPTZ38+e/i5PGUntx+dfPwwrOqThV/4wp+OJaBUxI2LpfDTp3AcoHz/wS3F9ZgC8EUJRAX6/oM7KWPcUQF0EssAD2NHsi5MiaaVuZ6SciX2IaMXq0gwUeMtqxhLhE3LGxIrmeS9PDcFGFcRjJ80OvmAYsUDZPZTWElWOFFeVC9UkS300ppW0AshV3rDl9A1aSr0Fx2vC0AjYojLjAmRjNb5ComsmO9ic6daaSYi0okd38Y+T0P5A0XwlLeQBo1GUaqlKMAFEGkFDr9/mhKbZsWWU8VMDS9y9io2v+Wffe2RkUC1wPclSHLDVwXtYAjAOr6rmS8gbkJTYHpbAt80vE7GjXqWD+MUFzpfls0Jgi8KU8iSRapB+aWRxMbbPDbJEHiZ21OIR/g6QEKrfQJ7ovLSs+n7nj+z/iScSKwFsBxKipqEPJYRmyohvJ1sVkSIat7rgfKrWmktA+W3Ko2yMmJ2WWm4NoG1BRxph88RGWLN4ze3poRs08j9FQ2dA9RbC+L0SblZMF10qLlAHXwXUPyb8dE9gN3Hzz6E4fGTrwCNj7/9Ynz7NydH3wLl9ObXp3+7Of7d0fF3d0/vP38DzF8PMC9oWmmR+1eJtUtz7l9fJzBfLy0AzKXQG2C+KDCfPoILIvFzFedD79bS0HumxrnQe9q1RcD33aMFwXf0HnMad0ecOZD79M7z4yc3jp8+PXn0yfjJr/9L3K3Px936+6m2Mo279ULpDex+A7v/r2C3/iOA3fIO+kePuieqz/8EdavJ1XtcGL06djBb7gsVNdFuefuvrAt7v6xqg+44dhjM5d4exGFJDKQ/0+GJ8lq/0pGZV/F9wEz8hf7Sn9VEL6J2Tbe3pGtyXUKRv9GB2cPvXraIT9lV3p3CX5JyLaZck+DzqlGQCPOqHF8ziqurkgISatq8mvEzOshMfjrlOU0yIEu+59Gi0541AsEcDiU8ayyXN7zRbONDAI8pC1Aiu7+EJiJfjC5jTaYvVNZYn3+MQEmvz5Z1bK1rYht3tbzVxYV8ydbW8xsYF/O6Dv83rQI8TqzyTxlC41BHCD5YchI12rDkk0bjP1zgAB4LKQAA</t>
+          <t>3ioAAB+LCAAAAAAAAAPtWltvG8cV/isLAgFaoNQubxJJjDfgRXKJkpIg0rWdl2C5O5SmWu6yO7uS+Ja+1EKcFA0Mp3VrpwjgoE0auwacNq7d5McEoiQ/5S/0zMxeeZG5ivuQwoECc85tzpw5c863s4vePhqa0gF2KLGtK5ncipKRsKXbBrF2r2Q8d5DNrWbeVtH6kY7Nbc3RhtgFYQm0LFo9ouRKZs91R1VZPjw8XDksrNjOrpxXlJx8o9Pu6nt4qGWJRV3N0nEm1DJerZVRUcMYdrCrGZqrCc0rmVa3tdLARG8CraNZ2i52VuoeJRamdN1yiUswZZoO1lzcaHZ+KRam5ldWV3JInqFHknWPmIaQS0gKui8H0+IeGWI1r+SVrFLO5pWeUq6WKtX82spapfxOoBgKorZG3S52DojOCV1XG464ulJm/5cq+TUkzxUCW1EAVLRlGjv4gFBsNLBp0lQRkf0NrOkurDpdMBUkx3R9Q5d34aqjjfZ6xDVxWvUN28E6BOpSc2/iwy3Hj19v1AZub4847ripjVPbukaxszVi0UinqqKmbbk1EzvutRFsKjZgz4Ghuo6HkbyAGSk1CdXhN7E8bKgDzaRxpQQTXbedfTrSdLwJB1ZmNg4t09YMyCyXUJfo0aQzDLTt2COwCJPXbdPYAKu+8BxGaLllQYjZtHXb3o+8m8dEPAd4NsCeDjU3EJ+ho+6efbhlmeOu16e6Q/rYaNYD6bk8xE6er93wqGsPwYuIhAQtRjEMudORx/AfnLdpJmpinQw1c9uEUFK1ALYSBFTzXHtA3IZtekOLBp5NUdF1WFcPH4XrDMdoC7bYYqG3rZYVyItgz2UlFXbsw3DOWQYPRYxco3qw6bOMaeEm0IJNnOXwfWGr3CAmtIP4jsSoydzo7mHszk0MwUGs8m2wBqPWx5vesA+HrA8n7YDPSpEc8RFkK2Q8+KUq0DSy/K+nKFX+B36EbLRuGYvlAiaC6WJzqbkSkqdICNZk1k3N2gfqdeLubdaCtczhIBGBhfKzPATnd2RqY04OoxSnoZalm56BRVloWQOeosw3sakL2WiG1IaTriLNGvfGIyjDlFRd+HElA425Sl0HWn9G1W3Pcp0xqx9I9kVfpUO9vsUn0MyldQYO/rUHiGO84Vl6wzaWn80Q0blmEXd5D23PEUVxeRUePVYfPdrErNLw0r+0vp5mTdRJJT608NC2iL58tCHIzHvjEguhwalaWgOL87W0vAndXTQ/dtaXVnMALkK7SzVNjVJbJzxZ/eNhxPTlBUemiQeaZwJUc6HR7oa1d5qManR/WiZOQtccM6iAKgPCFJCwbgxXdIAQDO2t6PaQEWQAoNe7SI7LMxyk43Vrt61Zux4gjbCuTNPD+su6ZM/RLMqWEwKLqVI8XwgFdUoAHlUUry2PJ4IoXjZwkTwlh3p4OLIdzexAYMiGn3Y+agJA0tHcPX8Evc3EehBkOVINtZKeBY6/Sow3KbEMduD9MjlF5EJsLQJzRzIRDbFVduBYmg3NJH1HVNWglc/jwYZFEDGov2xxKeFisAfw3AXd9xd4zMB4NPDpPGVzAUMkMCukanenWM4XK2XoZnyM+IqbeGRT4ko7sMCq1NgjgMQboAiRlOqwh1WpdrBblTaIBc9sBIjdMXXxsCoVFMm1pXJFYpgZGiQPn9+iXqvluE20EfQHvoQmrCVJSQoATtkF8+asYMiJFNSmRsxxTE5EqG3rIDZ59MfTL7+dHH9+9rtb3//nT6f3nsPvk2ePJg8fv7zzr/NPPwDi5N9PJw8Y9+Wtj84/+fDkmztnT1/AsKCc33parkwefi7CJCyintY3MXe6Vy+XlUIRcjgkIbZxMgffhqe7nHbzJsfc4Rj5z4h80FhvNa6267xWhcRAXbQrmT1+jm0vGnbFSvlEPF3kIMuEiNoLap8/TnBj7U9lj4MHOCkd5y9SFLE4e/HXsxePFmr7AYtwXK5SKWUV+MtfDPPySq7I5HKVeTCvnegvoXA+bnRKBu2I5hLGqWWohZxSUUprSi7sE0Z4EOYJTbN8Sz1tV57SE6SGgF5hCsTHAZMfjh6mbsgWxyU2EEE8/eft83/cTUj50fUpSSvgHIdIbDI5GHDTmzs9qbt1baexLvXWuyxPIl5MThi/QNifPTx08aThB/JnUqYk2RH2zsROaCLD5lGF9TR2pv256tjeSBSbmEJEnSMZVZ15GnMqD+eJmjlVgiLOHGl/R//w2TwFfx3NCBWrb0nwuC514Dl9L8xCzkCzbEGPCfmT3T8WNfCthAV/svCaAbIazk58GCY5FDi/c01R0PUuD+i+8m6sU/lE9ki2bRPLpWpxrZTjz2P+GIFyjtnj/6LWENonN83DBvQpCvq5RtePXP8gq5tIThLA05EGnduOnmNDgqjZUXhfPvjk9M9fnX785PzWF5P3/zb54OOzF385f/ypOGWnd5+cfvjYr+rThZ/7wp6OBaCU+I2LLrHTJzEcIH333h3Jsl0J4Ivk8Qr03Xv3YsaYoxzoRJYBHoaOJF2YEY0rMz0p5kroQ0IvVBFgosFaViGU8JuWPSJ6NMk7WWYKMK7EGT9p9bIexZINyOynsJKkcKS8rJ6vIlro9pqSz+V9rvCGLaGv0Vjor5p2H4BGwOCXGVMiCa2LFSJZPt/V9la91o5EhBNbjoEdlobiB2rRAKAG6RWjABeAo+6Z7M5pRmyWhYJfsQIm+5c3g5rBbu3nX3UkJFDDcxwBjCz/6r/rjQBMh/cziwX47WcMQG8KsBuH1NG41UzyYRzjQrdLshmB83kx8lmiMLUouygSeHiTxSYaAi9xYwrx8K/3BZw6ILAPMis3645jO3NrTsQJxDoAxaGMyFHIQxmZTSlguxFtVkAI6tzrge8lpbiWgO8btVZVGrtGVWpZBoG1eQxd+88OCWLDZre1moBps2j9koYuAOedJbH5tNw8aM670kJwDr5z+P3V5PgBQO2TF+/D8OTZF4DAJ19/Nrn729Pjr4FydvvLs7/fnvz++OSb+2cPv30Dxl8PGM8rSnGZO1eBr4sL7lxfJxgvF5cA40LoDRhfFozPHsEl0feFiovhdic13J6rcSHcnnVtGcB9/3hJwL3TqUtDax7WDjgLYPbZvW9Pnt06ef789MlHk2e/+YFYO7cYa+fejbWVWaydyxffQO03UPtHBbVzP1KoLe6a/++R9lTF+Z8gbTm6Yg+Lod3EJnZTf2USaHfsg0vrwt6nVW3RLdPwg5nuLUEYlshA/FMblihpnak5DoAg9lY+9bcxbWLtt9KtXh0Y2lpZG6wVjNVcvz/QyquD1WJO15X8oGSwux9hlL00YiaGgJTZK5d0k4CZpHr0emxHs3ZTWhMB5orsFRJEyr/N44U9HKMN4lD3BuuU/i9BuRlSbgogfEPNC7R7Q4xvqoVSSVBAQo7PJifcDgqMKz7Lss02GZKU75mUoAoljUAejEYCKqbdUWh6m/gIgGzMApTr/q+goYkXs2msiWMFVT7UD2x1vX5qc3KgvA18llmX0143AJldXpt/5ETMH+AAh16XNdGyKNndc9Pua75SKeBVnM/mB7qeLcIgC+24nzW0QSWnKIOCUcqzL1F849AeCD5MOQlrKoR6mpleT576SlX9LwactfXeKgAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -563,7 +563,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.5631136150295863</v>
+        <v>-0.5631136150295859</v>
       </c>
       <c r="C20" s="2">
         <v>0.5533161314864108</v>
@@ -3744,4 +3744,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>356</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</Name>
+          <DisplayName>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</DisplayName>
+          <SeriesId>310905701</SeriesId>
+          <Code>SR4824985</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>356</EndRow>
+          <EndCol>3</EndCol>
+          <Name>FAI: ytd: Individual Business: Individual Cooperative</Name>
+          <DisplayName>FAI: ytd: Individual Business: Individual Cooperative</DisplayName>
+          <SeriesId>310908401</SeriesId>
+          <Code>SR4825047</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E91112-D914-41D1-8479-2470B0634FE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_142.xlsx
+++ b/Testdata/TC_142.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3ioAAB+LCAAAAAAAAAPtWltvG8cV/isLAgFaoNQubxJJjDfgRXKJkpIg0rWdl2C5O5SmWu6yO7uS+Ja+1EKcFA0Mp3VrpwjgoE0auwacNq7d5McEoiQ/5S/0zMxeeZG5ivuQwoECc85tzpw5c863s4vePhqa0gF2KLGtK5ncipKRsKXbBrF2r2Q8d5DNrWbeVtH6kY7Nbc3RhtgFYQm0LFo9ouRKZs91R1VZPjw8XDksrNjOrpxXlJx8o9Pu6nt4qGWJRV3N0nEm1DJerZVRUcMYdrCrGZqrCc0rmVa3tdLARG8CraNZ2i52VuoeJRamdN1yiUswZZoO1lzcaHZ+KRam5ldWV3JInqFHknWPmIaQS0gKui8H0+IeGWI1r+SVrFLO5pWeUq6WKtX82spapfxOoBgKorZG3S52DojOCV1XG464ulJm/5cq+TUkzxUCW1EAVLRlGjv4gFBsNLBp0lQRkf0NrOkurDpdMBUkx3R9Q5d34aqjjfZ6xDVxWvUN28E6BOpSc2/iwy3Hj19v1AZub4847ripjVPbukaxszVi0UinqqKmbbk1EzvutRFsKjZgz4Ghuo6HkbyAGSk1CdXhN7E8bKgDzaRxpQQTXbedfTrSdLwJB1ZmNg4t09YMyCyXUJfo0aQzDLTt2COwCJPXbdPYAKu+8BxGaLllQYjZtHXb3o+8m8dEPAd4NsCeDjU3EJ+ho+6efbhlmeOu16e6Q/rYaNYD6bk8xE6er93wqGsPwYuIhAQtRjEMudORx/AfnLdpJmpinQw1c9uEUFK1ALYSBFTzXHtA3IZtekOLBp5NUdF1WFcPH4XrDMdoC7bYYqG3rZYVyItgz2UlFXbsw3DOWQYPRYxco3qw6bOMaeEm0IJNnOXwfWGr3CAmtIP4jsSoydzo7mHszk0MwUGs8m2wBqPWx5vesA+HrA8n7YDPSpEc8RFkK2Q8+KUq0DSy/K+nKFX+B36EbLRuGYvlAiaC6WJzqbkSkqdICNZk1k3N2gfqdeLubdaCtczhIBGBhfKzPATnd2RqY04OoxSnoZalm56BRVloWQOeosw3sakL2WiG1IaTriLNGvfGIyjDlFRd+HElA425Sl0HWn9G1W3Pcp0xqx9I9kVfpUO9vsUn0MyldQYO/rUHiGO84Vl6wzaWn80Q0blmEXd5D23PEUVxeRUePVYfPdrErNLw0r+0vp5mTdRJJT608NC2iL58tCHIzHvjEguhwalaWgOL87W0vAndXTQ/dtaXVnMALkK7SzVNjVJbJzxZ/eNhxPTlBUemiQeaZwJUc6HR7oa1d5qManR/WiZOQtccM6iAKgPCFJCwbgxXdIAQDO2t6PaQEWQAoNe7SI7LMxyk43Vrt61Zux4gjbCuTNPD+su6ZM/RLMqWEwKLqVI8XwgFdUoAHlUUry2PJ4IoXjZwkTwlh3p4OLIdzexAYMiGn3Y+agJA0tHcPX8Evc3EehBkOVINtZKeBY6/Sow3KbEMduD9MjlF5EJsLQJzRzIRDbFVduBYmg3NJH1HVNWglc/jwYZFEDGov2xxKeFisAfw3AXd9xd4zMB4NPDpPGVzAUMkMCukanenWM4XK2XoZnyM+IqbeGRT4ko7sMCq1NgjgMQboAiRlOqwh1WpdrBblTaIBc9sBIjdMXXxsCoVFMm1pXJFYpgZGiQPn9+iXqvluE20EfQHvoQmrCVJSQoATtkF8+asYMiJFNSmRsxxTE5EqG3rIDZ59MfTL7+dHH9+9rtb3//nT6f3nsPvk2ePJg8fv7zzr/NPPwDi5N9PJw8Y9+Wtj84/+fDkmztnT1/AsKCc33parkwefi7CJCyintY3MXe6Vy+XlUIRcjgkIbZxMgffhqe7nHbzJsfc4Rj5z4h80FhvNa6267xWhcRAXbQrmT1+jm0vGnbFSvlEPF3kIMuEiNoLap8/TnBj7U9lj4MHOCkd5y9SFLE4e/HXsxePFmr7AYtwXK5SKWUV+MtfDPPySq7I5HKVeTCvnegvoXA+bnRKBu2I5hLGqWWohZxSUUprSi7sE0Z4EOYJTbN8Sz1tV57SE6SGgF5hCsTHAZMfjh6mbsgWxyU2EEE8/eft83/cTUj50fUpSSvgHIdIbDI5GHDTmzs9qbt1baexLvXWuyxPIl5MThi/QNifPTx08aThB/JnUqYk2RH2zsROaCLD5lGF9TR2pv256tjeSBSbmEJEnSMZVZ15GnMqD+eJmjlVgiLOHGl/R//w2TwFfx3NCBWrb0nwuC514Dl9L8xCzkCzbEGPCfmT3T8WNfCthAV/svCaAbIazk58GCY5FDi/c01R0PUuD+i+8m6sU/lE9ki2bRPLpWpxrZTjz2P+GIFyjtnj/6LWENonN83DBvQpCvq5RtePXP8gq5tIThLA05EGnduOnmNDgqjZUXhfPvjk9M9fnX785PzWF5P3/zb54OOzF385f/ypOGWnd5+cfvjYr+rThZ/7wp6OBaCU+I2LLrHTJzEcIH333h3Jsl0J4Ivk8Qr03Xv3YsaYoxzoRJYBHoaOJF2YEY0rMz0p5kroQ0IvVBFgosFaViGU8JuWPSJ6NMk7WWYKMK7EGT9p9bIexZINyOynsJKkcKS8rJ6vIlro9pqSz+V9rvCGLaGv0Vjor5p2H4BGwOCXGVMiCa2LFSJZPt/V9la91o5EhBNbjoEdlobiB2rRAKAG6RWjABeAo+6Z7M5pRmyWhYJfsQIm+5c3g5rBbu3nX3UkJFDDcxwBjCz/6r/rjQBMh/cziwX47WcMQG8KsBuH1NG41UzyYRzjQrdLshmB83kx8lmiMLUouygSeHiTxSYaAi9xYwrx8K/3BZw6ILAPMis3645jO3NrTsQJxDoAxaGMyFHIQxmZTSlguxFtVkAI6tzrge8lpbiWgO8btVZVGrtGVWpZBoG1eQxd+88OCWLDZre1moBps2j9koYuAOedJbH5tNw8aM670kJwDr5z+P3V5PgBQO2TF+/D8OTZF4DAJ19/Nrn729Pjr4FydvvLs7/fnvz++OSb+2cPv30Dxl8PGM8rSnGZO1eBr4sL7lxfJxgvF5cA40LoDRhfFozPHsEl0feFiovhdic13J6rcSHcnnVtGcB9/3hJwL3TqUtDax7WDjgLYPbZvW9Pnt06ef789MlHk2e/+YFYO7cYa+fejbWVWaydyxffQO03UPtHBbVzP1KoLe6a/++R9lTF+Z8gbTm6Yg+Lod3EJnZTf2USaHfsg0vrwt6nVW3RLdPwg5nuLUEYlshA/FMblihpnak5DoAg9lY+9bcxbWLtt9KtXh0Y2lpZG6wVjNVcvz/QyquD1WJO15X8oGSwux9hlL00YiaGgJTZK5d0k4CZpHr0emxHs3ZTWhMB5orsFRJEyr/N44U9HKMN4lD3BuuU/i9BuRlSbgogfEPNC7R7Q4xvqoVSSVBAQo7PJifcDgqMKz7Lss02GZKU75mUoAoljUAejEYCKqbdUWh6m/gIgGzMApTr/q+goYkXs2msiWMFVT7UD2x1vX5qc3KgvA18llmX0143AJldXpt/5ETMH+AAh16XNdGyKNndc9Pua75SKeBVnM/mB7qeLcIgC+24nzW0QSWnKIOCUcqzL1F849AeCD5MOQlrKoR6mpleT576SlX9LwactfXeKgAA</t>
+          <t>CykAAB+LCAAAAAAAAAPtWltvG8cV/isLAgFaINTuklQkEeMNeJFcoqRkiHRt5yVY7o7IqZe77M6sJL6lL7UQJ0UDw2nd2ikCOGiTxq4Bp41rN/4xgSjJT/kLPTOzV15k0nUfGjgQYs65zZkzZ875dnbRu4cDR9nHPiWeeyGnr2g5BbuWZxO3dyEXsL28/k7uXQNtHlrYuWT65gAzEFZAy6XlQ0ou5PqMDcuqenBwsHJQXPH8nlrQNF292mq2rT4emHniUma6Fs7FWvbLtXIGqtmDFmambTJTal7INdqNlRomVh1oLdM1e9hfqQaUuJjSTZcRRjDlmj42Ga7VW7+QCzMKK++s6EidoieS1YA4tpTLSEp6KAfT4g4ZYKOg6et5bSOvFTu6XtZK5WJxZXVNey9SjAVR06Ssjf19YglCm5mDoVDXNrSirmulYhGpM4XAVhIAA+049i7eJxTbNew4dKmIqOEGViwGq14umBpSU7qhoVd34aJvDvsdwhy8nBtvKUPsKy3PZf23ld1WVRm4oWOJRQNteT62IJiv5N82Ptjxwxh3hk3gdvrEZ6O6OVra1mWK/Z0hj9hyqgaqwxIrDvbZ5SFsPLYhL4BhMD/ASJ3DTJTqhFrwm7gBto0906FppQwTXfH863RoWngbDrXKbRy4jmfakH2MUEasZNIpBrrke7Af3OWq59hbYDUUnsGILTdcCDGftup51xPvZjGR2FWxv7CnA5NF4lN01O57BzuuM2oHXWr5pIvtejWSnslD/HSG2rWAMm8AXiQkJGkpim2rrZY6gv/gTE4yUR1bZGA6lxwIJTXgNGcJqBIwb4+wmucEA5dGnk1Q0RVYVwcfxuuMx2gHttjloffchhvJy2DPZGUVdr2DeM5phghFilyhVrTp04xJ4TrQok2c5oh94avcIg60jPSOpKjZ3Gj3MWYzE0NyEK+OW7wJGdXRdjDowiHrwknbF7NSpCZ8BNkKGQ9+GRo0lrz462haWfyBHzEbbbr2fLmIiWC61FyGvorUCRKCNTlVx3SvA/UKYf3tSrSWGRwkIzBXfpqH4PwOHXMkyHGU0jTUcC0nsLEsCw13T6Qo901u6lw2miI14aQbyHRHndEQSjUlZQY/LuSgeZcp8wEe5AzLC1zmj3j9QGoo+jIdGnRdMYHpLKyz5+NfBYBKRluBa9U8e/HZbBmdyy5hi3voBb4siouriOjx+hjQOuaVRpT+hfWtZdZE/aXEBy4eeC6xFo82BJl7b7/CQmh0qhbWwPJ8LSzvQHeXzY+f9YXVfICU0O6WmqZCqWcRkazh8bBT+uqcI1PHe2bgAJxj0Gh7ce2dJKMKvT4pkyahy74TVUCDg2UKaNmyBysWQAiOCFcsb8AJKoDUK22kpuU5DrLwpttrmm4vAKQR15VJelx/eZfs+KZL+XJiYDFRimcLoahOScBjyOK1E4hEkMXLAy5SJ+RQBw+Gnm86LQgM2QrTLkRNAEhaJuuHI+htDraiIKuJaqyV9Sxy/GVioknJZfADH5bJCaIQ4muRuDyRSWiIr7IFx9KpmQ7p+rKqRq18Fg82LIGIUf3li1sSLkZ7AM9m0H1/jkccsCeDkC5SVo8YMoF5ITXau6X1QmljHbqZGCOx4joeepQwZRcWWFZqfQJovQaKEEmlCntYVir7vbKyRVx4riNAbI8ow4OyUtQU5inrGwrHzNAgRfjCFvVaLadtoq2oP4gl1GEtWUpWAHBKD8w704IxJ1Ew6iZxRik5GaGmZ4HY+MEfTr5+Pj768vS3N3749x9P7jyF38dPHozvP3xx659nn38ExPG/Ho/vce6LG5+cffbx8Xe3Th8/g2FRO7vxeH1jfP9LGSZpEXXMroOF053q+rpWLEEOxyTEN04V4NsOLCZo164JzB2PUfgcKQa1zUbtYrMqalVMjNRlu1L5I+rIC5JhW65UTCTSRY2yTIoYnaj2heMMN9X+DP7IuI+z0mn+PEUZi9Nnfzl99mCudhiwBMfpGxureQ3+CufDPHj4LnE5fWMWzGtm+kssXEgbnZBBu7K5xHFq2EZRh+f71TVNj/uEHR+EWUKTrNBSx+ypE3qSVJPQK06B9DhiisPRwZTFbHlcUgMZxJN/3Dz7++2MVBjdkJK1As4JiMQnU6OBML2921HaO5d3a5tKZ7PN8yThpeSk8XOEw9njQ5dOGnEg31Zyq4qXYO9c6oRmMmwWVVpfxs6kPxd9LxjKYpNSSKgzJJOqM0tjRuURPFkzJ0pQwpkhHe7o77+YpRCuo56g4vS9SpyFgoGm2ZKeEgonu3ska+BbGQvhZPE1A2Q1nJ30ME5yKHBh55qgoCttEdDr2vupThUS+SPZJY+4jBqltVVdPI+FYwTKOrcn/kWNAbRPYVqEDegTFPQzk24esvAgG9tIzRLA06EJndtLnmNjgqzZSXhf3Pvs5E/fnHz66OzGV+MP/zr+6NPTZ38+e/i5PGUntx+dfPwwrOqThV/4wp+OJaBUxI2LpfDTp3AcoHz/wS3F9ZgC8EUJRAX6/oM7KWPcUQF0EssAD2NHsi5MiaaVuZ6SciX2IaMXq0gwUeMtqxhLhE3LGxIrmeS9PDcFGFcRjJ80OvmAYsUDZPZTWElWOFFeVC9UkS300ppW0AshV3rDl9A1aSr0Fx2vC0AjYojLjAmRjNb5ComsmO9ic6daaSYi0okd38Y+T0P5A0XwlLeQBo1GUaqlKMAFEGkFDr9/mhKbZsWWU8VMDS9y9io2v+Wffe2RkUC1wPclSHLDVwXtYAjAOr6rmS8gbkJTYHpbAt80vE7GjXqWD+MUFzpfls0Jgi8KU8iSRapB+aWRxMbbPDbJEHiZ21OIR/g6QEKrfQJ7ovLSs+n7nj+z/iScSKwFsBxKipqEPJYRmyohvJ1sVkSIat7rgfKrWmktA+W3Ko2yMmJ2WWm4NoG1BRxph88RGWLN4ze3poRs08j9FQ2dA9RbC+L0SblZMF10qLlAHXwXUPyb8dE9gN3Hzz6E4fGTrwCNj7/9Ynz7NydH3wLl9ObXp3+7Of7d0fF3d0/vP38DzF8PMC9oWmmR+1eJtUtz7l9fJzBfLy0AzKXQG2C+KDCfPoILIvFzFedD79bS0HumxrnQe9q1RcD33aMFwXf0HnMad0ecOZD79M7z4yc3jp8+PXn0yfjJr/9L3K3Px936+6m2Mo279ULpDex+A7v/r2C3/iOA3fIO+kePuieqz/8EdavJ1XtcGL06djBb7gsVNdFuefuvrAt7v6xqg+44dhjM5d4exGFJDKQ/0+GJ8lq/0pGZV/F9wEz8hf7Sn9VEL6J2Tbe3pGtyXUKRv9GB2cPvXraIT9lV3p3CX5JyLaZck+DzqlGQCPOqHF8ziqurkgISatq8mvEzOshMfjrlOU0yIEu+59Gi0541AsEcDiU8ayyXN7zRbONDAI8pC1Aiu7+EJiJfjC5jTaYvVNZYn3+MQEmvz5Z1bK1rYht3tbzVxYV8ydbW8xsYF/O6Dv83rQI8TqzyTxlC41BHCD5YchI12rDkk0bjP1zgAB4LKQAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -563,7 +563,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.5631136150295859</v>
+        <v>-0.5631136150295863</v>
       </c>
       <c r="C20" s="2">
         <v>0.5533161314864108</v>
@@ -3744,48 +3744,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>356</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</Name>
-          <DisplayName>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</DisplayName>
-          <SeriesId>310905701</SeriesId>
-          <Code>SR4824985</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>356</EndRow>
-          <EndCol>3</EndCol>
-          <Name>FAI: ytd: Individual Business: Individual Cooperative</Name>
-          <DisplayName>FAI: ytd: Individual Business: Individual Cooperative</DisplayName>
-          <SeriesId>310908401</SeriesId>
-          <Code>SR4825047</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E91112-D914-41D1-8479-2470B0634FE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>